--- a/data/mtb_interactions.xlsx
+++ b/data/mtb_interactions.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\carol\github\CARDiG\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\github\CARAMeL\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95AF4BBB-1E69-42C8-AE46-9C1BCB41BABE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1728A988-EAF3-48EC-85BA-F456F98B6A0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-14508" windowWidth="23256" windowHeight="14160" xr2:uid="{7C180054-984B-4686-8335-6A1DCBA10DFA}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="22272" windowHeight="14616" activeTab="1" xr2:uid="{7C180054-984B-4686-8335-6A1DCBA10DFA}"/>
   </bookViews>
   <sheets>
     <sheet name="identifiers" sheetId="3" r:id="rId1"/>
@@ -635,18 +635,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B8A9319-8D01-4F93-B3B9-358FACCDDAF0}">
   <dimension ref="A1:B44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.7265625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="25.81640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>52</v>
       </c>
@@ -654,7 +654,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>53</v>
       </c>
@@ -662,7 +662,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>23</v>
       </c>
@@ -670,7 +670,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>54</v>
       </c>
@@ -678,7 +678,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>30</v>
       </c>
@@ -686,7 +686,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -694,7 +694,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>67</v>
       </c>
@@ -702,7 +702,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>55</v>
       </c>
@@ -710,7 +710,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>56</v>
       </c>
@@ -718,7 +718,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>57</v>
       </c>
@@ -726,7 +726,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>58</v>
       </c>
@@ -734,7 +734,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>22</v>
       </c>
@@ -742,7 +742,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>77</v>
       </c>
@@ -750,7 +750,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>68</v>
       </c>
@@ -758,7 +758,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>69</v>
       </c>
@@ -766,7 +766,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>3</v>
       </c>
@@ -774,7 +774,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>59</v>
       </c>
@@ -782,7 +782,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>70</v>
       </c>
@@ -790,7 +790,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>60</v>
       </c>
@@ -798,7 +798,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>1</v>
       </c>
@@ -806,7 +806,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>71</v>
       </c>
@@ -814,7 +814,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>61</v>
       </c>
@@ -822,7 +822,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>32</v>
       </c>
@@ -830,7 +830,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>72</v>
       </c>
@@ -838,7 +838,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>62</v>
       </c>
@@ -846,7 +846,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>73</v>
       </c>
@@ -854,7 +854,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>74</v>
       </c>
@@ -862,7 +862,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>75</v>
       </c>
@@ -870,7 +870,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>36</v>
       </c>
@@ -878,7 +878,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>63</v>
       </c>
@@ -886,7 +886,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>9</v>
       </c>
@@ -894,7 +894,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>38</v>
       </c>
@@ -902,7 +902,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>40</v>
       </c>
@@ -910,7 +910,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>2</v>
       </c>
@@ -918,7 +918,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>41</v>
       </c>
@@ -926,7 +926,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>18</v>
       </c>
@@ -934,7 +934,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>8</v>
       </c>
@@ -942,7 +942,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>64</v>
       </c>
@@ -950,7 +950,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>0</v>
       </c>
@@ -958,7 +958,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>34</v>
       </c>
@@ -966,7 +966,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>21</v>
       </c>
@@ -974,7 +974,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>76</v>
       </c>
@@ -982,7 +982,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>65</v>
       </c>
@@ -990,7 +990,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>35</v>
       </c>
@@ -1008,20 +1008,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0433D0DA-7DEE-43CE-A487-5B1A76DDDE77}">
   <dimension ref="A1:G290"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A150" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A166" sqref="A166"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.7265625" bestFit="1" customWidth="1"/>
-    <col min="2" max="4" width="6.81640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.81640625" customWidth="1"/>
-    <col min="6" max="6" width="11.81640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="4" width="6.77734375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.77734375" customWidth="1"/>
+    <col min="6" max="6" width="11.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>42</v>
       </c>
@@ -1044,7 +1044,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -1058,7 +1058,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -1072,7 +1072,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -1086,7 +1086,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>0</v>
       </c>
@@ -1100,7 +1100,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>0</v>
       </c>
@@ -1114,7 +1114,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>0</v>
       </c>
@@ -1128,7 +1128,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>0</v>
       </c>
@@ -1142,7 +1142,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>0</v>
       </c>
@@ -1156,7 +1156,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -1170,7 +1170,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -1184,7 +1184,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>9</v>
       </c>
@@ -1198,7 +1198,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>9</v>
       </c>
@@ -1212,7 +1212,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>9</v>
       </c>
@@ -1226,7 +1226,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>9</v>
       </c>
@@ -1240,7 +1240,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>9</v>
       </c>
@@ -1254,7 +1254,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>9</v>
       </c>
@@ -1268,7 +1268,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>9</v>
       </c>
@@ -1282,7 +1282,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>1</v>
       </c>
@@ -1296,7 +1296,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>1</v>
       </c>
@@ -1310,7 +1310,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>1</v>
       </c>
@@ -1324,7 +1324,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>1</v>
       </c>
@@ -1338,7 +1338,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>1</v>
       </c>
@@ -1352,7 +1352,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>1</v>
       </c>
@@ -1366,7 +1366,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>77</v>
       </c>
@@ -1380,7 +1380,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>77</v>
       </c>
@@ -1394,7 +1394,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>77</v>
       </c>
@@ -1408,7 +1408,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>77</v>
       </c>
@@ -1422,7 +1422,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>77</v>
       </c>
@@ -1436,7 +1436,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>77</v>
       </c>
@@ -1450,7 +1450,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>77</v>
       </c>
@@ -1464,7 +1464,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>64</v>
       </c>
@@ -1478,7 +1478,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>64</v>
       </c>
@@ -1492,7 +1492,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>64</v>
       </c>
@@ -1506,7 +1506,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>64</v>
       </c>
@@ -1520,7 +1520,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>64</v>
       </c>
@@ -1534,7 +1534,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>64</v>
       </c>
@@ -1548,7 +1548,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>64</v>
       </c>
@@ -1562,7 +1562,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>64</v>
       </c>
@@ -1576,7 +1576,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>64</v>
       </c>
@@ -1590,7 +1590,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>64</v>
       </c>
@@ -1604,7 +1604,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>64</v>
       </c>
@@ -1618,7 +1618,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>64</v>
       </c>
@@ -1632,7 +1632,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>64</v>
       </c>
@@ -1646,7 +1646,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>64</v>
       </c>
@@ -1660,7 +1660,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>2</v>
       </c>
@@ -1674,7 +1674,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>2</v>
       </c>
@@ -1688,7 +1688,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>2</v>
       </c>
@@ -1702,7 +1702,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>2</v>
       </c>
@@ -1716,7 +1716,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>2</v>
       </c>
@@ -1730,7 +1730,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>1</v>
       </c>
@@ -1744,7 +1744,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>1</v>
       </c>
@@ -1758,7 +1758,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>1</v>
       </c>
@@ -1772,7 +1772,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>1</v>
       </c>
@@ -1786,7 +1786,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>2</v>
       </c>
@@ -1800,7 +1800,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>64</v>
       </c>
@@ -1814,7 +1814,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>55</v>
       </c>
@@ -1831,7 +1831,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>55</v>
       </c>
@@ -1848,7 +1848,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>55</v>
       </c>
@@ -1865,7 +1865,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>77</v>
       </c>
@@ -1882,7 +1882,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>3</v>
       </c>
@@ -1899,7 +1899,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>1</v>
       </c>
@@ -1916,7 +1916,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>1</v>
       </c>
@@ -1933,7 +1933,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>1</v>
       </c>
@@ -1950,7 +1950,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>1</v>
       </c>
@@ -1967,7 +1967,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>1</v>
       </c>
@@ -1984,7 +1984,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>1</v>
       </c>
@@ -2001,7 +2001,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>1</v>
       </c>
@@ -2018,7 +2018,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>1</v>
       </c>
@@ -2035,7 +2035,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>1</v>
       </c>
@@ -2052,7 +2052,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>1</v>
       </c>
@@ -2069,7 +2069,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>1</v>
       </c>
@@ -2086,7 +2086,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>1</v>
       </c>
@@ -2103,7 +2103,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>1</v>
       </c>
@@ -2120,7 +2120,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>1</v>
       </c>
@@ -2137,7 +2137,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>1</v>
       </c>
@@ -2154,7 +2154,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>1</v>
       </c>
@@ -2171,7 +2171,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>77</v>
       </c>
@@ -2185,7 +2185,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>1</v>
       </c>
@@ -2199,7 +2199,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>0</v>
       </c>
@@ -2213,7 +2213,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>9</v>
       </c>
@@ -2227,7 +2227,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>55</v>
       </c>
@@ -2244,7 +2244,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>77</v>
       </c>
@@ -2261,7 +2261,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>3</v>
       </c>
@@ -2278,7 +2278,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>3</v>
       </c>
@@ -2295,7 +2295,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>9</v>
       </c>
@@ -2312,7 +2312,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>73</v>
       </c>
@@ -2329,7 +2329,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>55</v>
       </c>
@@ -2346,7 +2346,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>55</v>
       </c>
@@ -2363,7 +2363,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>77</v>
       </c>
@@ -2380,7 +2380,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>3</v>
       </c>
@@ -2397,7 +2397,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>3</v>
       </c>
@@ -2414,7 +2414,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>1</v>
       </c>
@@ -2431,7 +2431,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>32</v>
       </c>
@@ -2448,7 +2448,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>73</v>
       </c>
@@ -2465,7 +2465,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>70</v>
       </c>
@@ -2479,7 +2479,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>70</v>
       </c>
@@ -2493,7 +2493,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>70</v>
       </c>
@@ -2507,7 +2507,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>70</v>
       </c>
@@ -2521,7 +2521,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>70</v>
       </c>
@@ -2535,7 +2535,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>70</v>
       </c>
@@ -2549,7 +2549,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>70</v>
       </c>
@@ -2563,7 +2563,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>1</v>
       </c>
@@ -2577,7 +2577,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>1</v>
       </c>
@@ -2591,7 +2591,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>1</v>
       </c>
@@ -2605,7 +2605,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>1</v>
       </c>
@@ -2619,7 +2619,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>1</v>
       </c>
@@ -2633,7 +2633,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>1</v>
       </c>
@@ -2647,7 +2647,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>70</v>
       </c>
@@ -2661,7 +2661,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>1</v>
       </c>
@@ -2675,7 +2675,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>30</v>
       </c>
@@ -2689,7 +2689,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>30</v>
       </c>
@@ -2703,7 +2703,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>30</v>
       </c>
@@ -2717,7 +2717,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>30</v>
       </c>
@@ -2731,7 +2731,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>30</v>
       </c>
@@ -2745,7 +2745,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>30</v>
       </c>
@@ -2759,7 +2759,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
         <v>55</v>
       </c>
@@ -2773,7 +2773,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
         <v>55</v>
       </c>
@@ -2787,7 +2787,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
         <v>55</v>
       </c>
@@ -2801,7 +2801,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
         <v>55</v>
       </c>
@@ -2815,7 +2815,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
         <v>55</v>
       </c>
@@ -2829,7 +2829,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
         <v>9</v>
       </c>
@@ -2843,7 +2843,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
         <v>9</v>
       </c>
@@ -2857,7 +2857,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
         <v>9</v>
       </c>
@@ -2871,7 +2871,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
         <v>9</v>
       </c>
@@ -2885,7 +2885,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
         <v>32</v>
       </c>
@@ -2899,7 +2899,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
         <v>32</v>
       </c>
@@ -2913,7 +2913,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
         <v>32</v>
       </c>
@@ -2927,7 +2927,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
         <v>2</v>
       </c>
@@ -2941,7 +2941,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
         <v>2</v>
       </c>
@@ -2955,7 +2955,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
         <v>3</v>
       </c>
@@ -2969,7 +2969,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
         <v>30</v>
       </c>
@@ -2986,7 +2986,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
         <v>30</v>
       </c>
@@ -3003,7 +3003,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
         <v>30</v>
       </c>
@@ -3020,7 +3020,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
         <v>30</v>
       </c>
@@ -3037,7 +3037,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
         <v>30</v>
       </c>
@@ -3054,7 +3054,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
         <v>30</v>
       </c>
@@ -3071,7 +3071,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
         <v>55</v>
       </c>
@@ -3088,7 +3088,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
         <v>55</v>
       </c>
@@ -3105,7 +3105,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
         <v>55</v>
       </c>
@@ -3122,7 +3122,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
         <v>1</v>
       </c>
@@ -3139,7 +3139,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
         <v>30</v>
       </c>
@@ -3159,7 +3159,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="143" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
         <v>30</v>
       </c>
@@ -3179,7 +3179,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="144" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
         <v>30</v>
       </c>
@@ -3199,7 +3199,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="145" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
         <v>30</v>
       </c>
@@ -3219,7 +3219,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="146" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
         <v>55</v>
       </c>
@@ -3239,7 +3239,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="147" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
         <v>30</v>
       </c>
@@ -3262,7 +3262,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="148" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
         <v>30</v>
       </c>
@@ -3276,7 +3276,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="149" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
         <v>0</v>
       </c>
@@ -3290,7 +3290,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="150" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
         <v>0</v>
       </c>
@@ -3304,7 +3304,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="151" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
         <v>32</v>
       </c>
@@ -3318,7 +3318,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="152" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
         <v>32</v>
       </c>
@@ -3332,7 +3332,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="153" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
         <v>32</v>
       </c>
@@ -3346,7 +3346,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="154" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
         <v>32</v>
       </c>
@@ -3360,7 +3360,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="155" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
         <v>32</v>
       </c>
@@ -3374,7 +3374,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="156" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
         <v>32</v>
       </c>
@@ -3388,7 +3388,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="157" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
         <v>0</v>
       </c>
@@ -3402,7 +3402,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="158" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
         <v>35</v>
       </c>
@@ -3416,7 +3416,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="159" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
         <v>35</v>
       </c>
@@ -3430,7 +3430,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="160" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
         <v>35</v>
       </c>
@@ -3444,7 +3444,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="161" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
         <v>35</v>
       </c>
@@ -3458,7 +3458,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="162" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
         <v>35</v>
       </c>
@@ -3472,7 +3472,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="163" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
         <v>35</v>
       </c>
@@ -3486,7 +3486,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="164" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
         <v>35</v>
       </c>
@@ -3500,7 +3500,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="165" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
         <v>35</v>
       </c>
@@ -3514,7 +3514,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="166" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
         <v>76</v>
       </c>
@@ -3528,7 +3528,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="167" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
         <v>76</v>
       </c>
@@ -3542,7 +3542,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="168" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
         <v>76</v>
       </c>
@@ -3556,7 +3556,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="169" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
         <v>76</v>
       </c>
@@ -3570,7 +3570,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="170" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
         <v>76</v>
       </c>
@@ -3584,7 +3584,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="171" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
         <v>22</v>
       </c>
@@ -3598,7 +3598,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="172" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
         <v>22</v>
       </c>
@@ -3612,7 +3612,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="173" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
         <v>22</v>
       </c>
@@ -3626,7 +3626,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="174" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
         <v>22</v>
       </c>
@@ -3640,7 +3640,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="175" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
         <v>22</v>
       </c>
@@ -3654,7 +3654,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="176" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
         <v>38</v>
       </c>
@@ -3668,7 +3668,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="177" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
         <v>38</v>
       </c>
@@ -3682,7 +3682,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="178" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
         <v>38</v>
       </c>
@@ -3696,7 +3696,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="179" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
         <v>38</v>
       </c>
@@ -3710,7 +3710,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="180" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
         <v>38</v>
       </c>
@@ -3724,7 +3724,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="181" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
         <v>38</v>
       </c>
@@ -3738,7 +3738,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="182" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
         <v>38</v>
       </c>
@@ -3752,7 +3752,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="183" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
         <v>30</v>
       </c>
@@ -3766,7 +3766,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="184" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
         <v>30</v>
       </c>
@@ -3780,7 +3780,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="185" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
         <v>30</v>
       </c>
@@ -3794,7 +3794,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="186" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
         <v>30</v>
       </c>
@@ -3808,7 +3808,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="187" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
         <v>55</v>
       </c>
@@ -3822,7 +3822,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="188" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
         <v>55</v>
       </c>
@@ -3836,7 +3836,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="189" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
         <v>55</v>
       </c>
@@ -3850,7 +3850,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="190" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
         <v>1</v>
       </c>
@@ -3864,7 +3864,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="191" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
         <v>1</v>
       </c>
@@ -3878,7 +3878,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="192" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
         <v>9</v>
       </c>
@@ -3892,7 +3892,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="193" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
         <v>58</v>
       </c>
@@ -3906,7 +3906,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="194" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
         <v>58</v>
       </c>
@@ -3923,7 +3923,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="195" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
         <v>58</v>
       </c>
@@ -3937,7 +3937,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="196" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
         <v>3</v>
       </c>
@@ -3954,7 +3954,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="197" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
         <v>1</v>
       </c>
@@ -3971,7 +3971,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="198" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
         <v>30</v>
       </c>
@@ -3985,7 +3985,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="199" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
         <v>22</v>
       </c>
@@ -3999,7 +3999,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="200" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
         <v>30</v>
       </c>
@@ -4013,7 +4013,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="201" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="201" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
         <v>30</v>
       </c>
@@ -4027,7 +4027,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="202" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="202" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
         <v>58</v>
       </c>
@@ -4041,7 +4041,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="203" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="203" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
         <v>58</v>
       </c>
@@ -4055,7 +4055,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="204" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="204" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A204" t="s">
         <v>2</v>
       </c>
@@ -4069,7 +4069,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="205" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="205" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
         <v>2</v>
       </c>
@@ -4083,7 +4083,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="206" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="206" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
         <v>2</v>
       </c>
@@ -4097,7 +4097,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="207" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="207" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A207" t="s">
         <v>8</v>
       </c>
@@ -4111,7 +4111,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="208" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="208" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A208" t="s">
         <v>30</v>
       </c>
@@ -4125,7 +4125,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="209" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="209" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A209" t="s">
         <v>8</v>
       </c>
@@ -4139,7 +4139,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="210" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="210" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A210" t="s">
         <v>2</v>
       </c>
@@ -4153,7 +4153,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="211" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="211" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A211" t="s">
         <v>2</v>
       </c>
@@ -4167,7 +4167,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="212" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="212" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A212" t="s">
         <v>55</v>
       </c>
@@ -4181,7 +4181,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="213" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="213" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A213" t="s">
         <v>4</v>
       </c>
@@ -4195,7 +4195,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="214" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="214" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A214" t="s">
         <v>55</v>
       </c>
@@ -4209,7 +4209,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="215" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="215" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A215" t="s">
         <v>55</v>
       </c>
@@ -4223,7 +4223,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="216" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="216" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A216" t="s">
         <v>58</v>
       </c>
@@ -4237,7 +4237,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="217" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="217" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A217" t="s">
         <v>58</v>
       </c>
@@ -4251,7 +4251,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="218" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="218" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A218" t="s">
         <v>4</v>
       </c>
@@ -4265,7 +4265,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="219" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="219" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A219" t="s">
         <v>1</v>
       </c>
@@ -4279,7 +4279,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="220" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="220" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A220" t="s">
         <v>1</v>
       </c>
@@ -4293,7 +4293,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="221" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="221" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A221" t="s">
         <v>61</v>
       </c>
@@ -4307,7 +4307,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="222" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="222" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A222" t="s">
         <v>1</v>
       </c>
@@ -4321,7 +4321,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="223" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="223" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A223" t="s">
         <v>55</v>
       </c>
@@ -4335,7 +4335,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="224" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="224" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A224" t="s">
         <v>61</v>
       </c>
@@ -4349,7 +4349,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="225" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="225" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A225" t="s">
         <v>73</v>
       </c>
@@ -4363,7 +4363,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="226" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="226" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A226" t="s">
         <v>55</v>
       </c>
@@ -4380,7 +4380,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="227" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="227" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A227" t="s">
         <v>55</v>
       </c>
@@ -4397,7 +4397,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="228" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="228" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A228" t="s">
         <v>58</v>
       </c>
@@ -4414,7 +4414,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="229" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="229" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A229" t="s">
         <v>1</v>
       </c>
@@ -4431,7 +4431,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="230" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="230" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A230" t="s">
         <v>4</v>
       </c>
@@ -4448,7 +4448,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="231" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="231" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A231" t="s">
         <v>1</v>
       </c>
@@ -4465,7 +4465,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="232" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="232" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A232" t="s">
         <v>55</v>
       </c>
@@ -4482,7 +4482,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="233" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="233" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A233" t="s">
         <v>61</v>
       </c>
@@ -4499,7 +4499,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="234" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="234" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A234" t="s">
         <v>3</v>
       </c>
@@ -4513,7 +4513,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="235" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="235" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A235" t="s">
         <v>3</v>
       </c>
@@ -4527,7 +4527,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="236" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="236" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A236" t="s">
         <v>3</v>
       </c>
@@ -4541,7 +4541,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="237" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="237" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A237" t="s">
         <v>3</v>
       </c>
@@ -4555,7 +4555,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="238" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="238" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A238" t="s">
         <v>3</v>
       </c>
@@ -4569,7 +4569,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="239" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="239" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A239" t="s">
         <v>3</v>
       </c>
@@ -4583,7 +4583,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="240" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="240" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A240" t="s">
         <v>3</v>
       </c>
@@ -4597,7 +4597,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="241" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="241" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A241" t="s">
         <v>3</v>
       </c>
@@ -4611,7 +4611,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="242" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="242" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A242" t="s">
         <v>3</v>
       </c>
@@ -4625,7 +4625,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="243" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="243" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A243" t="s">
         <v>1</v>
       </c>
@@ -4639,7 +4639,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="244" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="244" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A244" t="s">
         <v>1</v>
       </c>
@@ -4653,7 +4653,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="245" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="245" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A245" t="s">
         <v>8</v>
       </c>
@@ -4667,7 +4667,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="246" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="246" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A246" t="s">
         <v>8</v>
       </c>
@@ -4681,7 +4681,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="247" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="247" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A247" t="s">
         <v>8</v>
       </c>
@@ -4695,7 +4695,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="248" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="248" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A248" t="s">
         <v>8</v>
       </c>
@@ -4709,7 +4709,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="249" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="249" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A249" t="s">
         <v>8</v>
       </c>
@@ -4723,7 +4723,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="250" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="250" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A250" t="s">
         <v>8</v>
       </c>
@@ -4737,7 +4737,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="251" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="251" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A251" t="s">
         <v>3</v>
       </c>
@@ -4754,7 +4754,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="252" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="252" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A252" t="s">
         <v>3</v>
       </c>
@@ -4771,7 +4771,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="253" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="253" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A253" t="s">
         <v>3</v>
       </c>
@@ -4788,7 +4788,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="254" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="254" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A254" t="s">
         <v>3</v>
       </c>
@@ -4805,7 +4805,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="255" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="255" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A255" t="s">
         <v>3</v>
       </c>
@@ -4822,7 +4822,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="256" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="256" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A256" t="s">
         <v>3</v>
       </c>
@@ -4839,7 +4839,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="257" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="257" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A257" t="s">
         <v>3</v>
       </c>
@@ -4856,7 +4856,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="258" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="258" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A258" t="s">
         <v>3</v>
       </c>
@@ -4873,7 +4873,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="259" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="259" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A259" t="s">
         <v>3</v>
       </c>
@@ -4890,7 +4890,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="260" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="260" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A260" t="s">
         <v>1</v>
       </c>
@@ -4907,7 +4907,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="261" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="261" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A261" t="s">
         <v>1</v>
       </c>
@@ -4924,7 +4924,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="262" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="262" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A262" t="s">
         <v>1</v>
       </c>
@@ -4941,7 +4941,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="263" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="263" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A263" t="s">
         <v>1</v>
       </c>
@@ -4958,7 +4958,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="264" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="264" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A264" t="s">
         <v>1</v>
       </c>
@@ -4975,7 +4975,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="265" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="265" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A265" t="s">
         <v>1</v>
       </c>
@@ -4992,7 +4992,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="266" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="266" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A266" t="s">
         <v>1</v>
       </c>
@@ -5009,7 +5009,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="267" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="267" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A267" t="s">
         <v>1</v>
       </c>
@@ -5026,7 +5026,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="268" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="268" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A268" t="s">
         <v>1</v>
       </c>
@@ -5043,7 +5043,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="269" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="269" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A269" t="s">
         <v>1</v>
       </c>
@@ -5060,7 +5060,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="270" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="270" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A270" t="s">
         <v>1</v>
       </c>
@@ -5077,7 +5077,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="271" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="271" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A271" t="s">
         <v>3</v>
       </c>
@@ -5097,7 +5097,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="272" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="272" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A272" t="s">
         <v>3</v>
       </c>
@@ -5117,7 +5117,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="273" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="273" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A273" t="s">
         <v>9</v>
       </c>
@@ -5134,7 +5134,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="274" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="274" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A274" t="s">
         <v>3</v>
       </c>
@@ -5154,7 +5154,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="275" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="275" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A275" t="s">
         <v>3</v>
       </c>
@@ -5174,7 +5174,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="276" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="276" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A276" t="s">
         <v>1</v>
       </c>
@@ -5194,7 +5194,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="277" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="277" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A277" t="s">
         <v>1</v>
       </c>
@@ -5214,7 +5214,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="278" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="278" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A278" t="s">
         <v>1</v>
       </c>
@@ -5234,7 +5234,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="279" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="279" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A279" t="s">
         <v>1</v>
       </c>
@@ -5254,7 +5254,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="280" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="280" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A280" t="s">
         <v>1</v>
       </c>
@@ -5274,7 +5274,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="281" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="281" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A281" t="s">
         <v>1</v>
       </c>
@@ -5294,7 +5294,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="282" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="282" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A282" t="s">
         <v>1</v>
       </c>
@@ -5314,7 +5314,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="283" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="283" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A283" t="s">
         <v>73</v>
       </c>
@@ -5334,7 +5334,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="284" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="284" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A284" t="s">
         <v>73</v>
       </c>
@@ -5354,7 +5354,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="285" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="285" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A285" t="s">
         <v>36</v>
       </c>
@@ -5374,7 +5374,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="286" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="286" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A286" t="s">
         <v>8</v>
       </c>
@@ -5394,7 +5394,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="287" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="287" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A287" t="s">
         <v>8</v>
       </c>
@@ -5414,7 +5414,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="288" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="288" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A288" t="s">
         <v>8</v>
       </c>
@@ -5434,7 +5434,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="289" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="289" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A289" t="s">
         <v>8</v>
       </c>
@@ -5454,7 +5454,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="290" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="290" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A290" t="s">
         <v>3</v>
       </c>
